--- a/data/list/list.xlsx
+++ b/data/list/list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>표 1</t>
   </si>
@@ -56,7 +56,7 @@
     </r>
   </si>
   <si>
-    <t>사원</t>
+    <t>과장</t>
   </si>
   <si>
     <t>이은희</t>
@@ -85,6 +85,9 @@
       </rPr>
       <t>jy@onware.co.kr</t>
     </r>
+  </si>
+  <si>
+    <t>사원</t>
   </si>
   <si>
     <t>장성화</t>
@@ -1632,7 +1635,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s" s="13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1641,13 +1644,13 @@
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="13">
         <v>14</v>
-      </c>
-      <c r="B7" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s" s="13">
-        <v>9</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -1656,13 +1659,13 @@
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
